--- a/Account Book.xlsx
+++ b/Account Book.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AccountBook-With-Excel-By-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32C70C4-EA21-44DC-9D3F-7DA63B7FA536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEFE0C5-614D-4157-8A48-B3D41ECBE34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022-02" sheetId="1" r:id="rId1"/>
+    <sheet name="2022-2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -37,18 +37,17 @@
     <t>价格清单</t>
   </si>
   <si>
+    <t>购买者清单</t>
+  </si>
+  <si>
     <t>税</t>
-  </si>
-  <si>
-    <t>购买者清单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +67,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,12 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -424,16 +413,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -452,11 +438,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
